--- a/public/【アレンジ版】発注請書_タテ型_空欄版.xlsx
+++ b/public/【アレンジ版】発注請書_タテ型_空欄版.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC48ED61-85B4-4431-85D9-5C8F83D9CF8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D89F7776-C784-4130-A78A-2DB3B9DB53F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9983C110-93CF-504C-9689-994AB68E4182}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="15090" windowHeight="9045" xr2:uid="{9983C110-93CF-504C-9689-994AB68E4182}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
-  <si>
-    <t>発　注　請　書</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>ネイバーズ株式会社御中</t>
   </si>
@@ -966,7 +963,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.77734375" defaultRowHeight="19.5" x14ac:dyDescent="0.4"/>
@@ -979,9 +976,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="44.1" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="29"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
@@ -991,13 +986,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="30" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="30"/>
       <c r="D2" s="30"/>
       <c r="F2" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -1006,40 +1001,40 @@
       <c r="C3" s="30"/>
       <c r="D3" s="30"/>
       <c r="F3" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="12"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="G8" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="17"/>
     </row>
@@ -1048,7 +1043,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="31" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="34"/>
@@ -1062,21 +1057,21 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="40" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="41"/>
       <c r="C14" s="41"/>
       <c r="D14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="F14" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="G14" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -1144,7 +1139,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="F22" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G22" s="8"/>
     </row>
@@ -1153,7 +1148,7 @@
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="F23" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23" s="8">
         <f>G22*0.1</f>
@@ -1165,7 +1160,7 @@
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="F24" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24" s="8">
         <f>G22+G23</f>
@@ -1179,7 +1174,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
@@ -1190,7 +1185,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -1201,31 +1196,31 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G28" s="22"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G29" s="22"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G30" s="22"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G31" s="22"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G32" s="22"/>
     </row>
@@ -1235,7 +1230,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34" s="23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G34" s="22"/>
     </row>
@@ -1249,7 +1244,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37" s="23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G37" s="22"/>
     </row>
